--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iasonov/Programming/Python/HSE_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0736CC-320F-F64B-90FD-2A44CAEC2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5D8E31-05F0-A541-AA79-5FA13A8F1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16440" xr2:uid="{459C6DFD-26EB-1040-9D7C-59DC53018D97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{459C6DFD-26EB-1040-9D7C-59DC53018D97}"/>
   </bookViews>
   <sheets>
     <sheet name="programs" sheetId="1" r:id="rId1"/>
@@ -797,11 +797,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1118,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1150,7 @@
       <c r="F1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>235</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1267,7 +1266,7 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1308,7 +1307,7 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1619,7 +1618,7 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>100</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1645,7 +1644,7 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>50</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1719,19 +1718,19 @@
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>430</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>100</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1802,7 +1801,7 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1816,19 +1815,19 @@
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>490</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>160</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>100</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1854,7 +1853,7 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>100</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1913,19 +1912,19 @@
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>380</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>70</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>100</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -1951,7 +1950,7 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -2040,19 +2039,19 @@
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>100</v>
       </c>
     </row>
@@ -2195,7 +2194,7 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <v>50</v>
       </c>
     </row>
@@ -2248,7 +2247,7 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <v>100</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -2274,7 +2273,7 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
         <v>100</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -2315,7 +2314,7 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
         <v>100</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -2449,19 +2448,19 @@
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>510</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>150</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77">
         <v>15</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77">
         <v>100</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2865,19 +2864,19 @@
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>440</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>5</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <v>2</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104">
         <v>100</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -2951,19 +2950,19 @@
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>400</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>20</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109">
         <v>100</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -2992,19 +2991,19 @@
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>700</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>130</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111">
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111">
         <v>100</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -3018,19 +3017,19 @@
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>800</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>165</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112">
         <v>10</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
         <v>100</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -3524,19 +3523,19 @@
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>430</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>100</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145">
         <v>100</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -3580,19 +3579,19 @@
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>410</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>160</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148">
         <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148">
         <v>100</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -3663,7 +3662,7 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152">
         <v>100</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -3734,7 +3733,7 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156">
         <v>100</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -3760,7 +3759,7 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157">
         <v>100</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -3921,7 +3920,7 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167">
         <v>100</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -3953,16 +3952,16 @@
       <c r="C169" s="1">
         <v>440</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>55</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169">
         <v>5</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169">
         <v>100</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -4051,7 +4050,7 @@
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>390</v>
       </c>
       <c r="D175" s="1">
@@ -4063,7 +4062,7 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175">
         <v>100</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -4164,22 +4163,22 @@
       <c r="A182" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>193</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>500</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182">
         <v>120</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182">
         <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182">
         <v>100</v>
       </c>
     </row>
@@ -4187,22 +4186,22 @@
       <c r="A183" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>193</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>500</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>35</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183">
         <v>2</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183">
         <v>100</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -4213,7 +4212,7 @@
       <c r="A184" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>193</v>
       </c>
       <c r="C184" s="1">
@@ -4228,7 +4227,7 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184">
         <v>100</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -4239,7 +4238,7 @@
       <c r="A185" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>193</v>
       </c>
       <c r="C185" s="1">
@@ -4254,7 +4253,7 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185">
         <v>100</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -4265,22 +4264,22 @@
       <c r="A186" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>193</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>350</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186">
         <v>100</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186">
         <v>3</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186">
         <v>50</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -4291,7 +4290,7 @@
       <c r="A187" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>193</v>
       </c>
       <c r="C187" s="1">
@@ -4306,171 +4305,171 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187">
         <v>100</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="3">
-        <v>0</v>
-      </c>
-      <c r="D188" s="3">
+      <c r="B188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2">
+        <v>390</v>
+      </c>
+      <c r="D188" s="2">
         <v>50</v>
       </c>
-      <c r="E188" s="3">
-        <v>0</v>
-      </c>
-      <c r="F188" s="3" t="s">
+      <c r="E188" s="2">
+        <v>0</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188">
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="3">
+      <c r="B189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2">
         <v>370</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="2">
         <v>150</v>
       </c>
-      <c r="E189" s="3">
-        <v>0</v>
-      </c>
-      <c r="F189" s="3" t="s">
+      <c r="E189" s="2">
+        <v>0</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="3">
+      <c r="B190" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="2">
         <v>490</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="2">
         <v>50</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="2">
         <v>5</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190">
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="3">
+      <c r="B191" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2">
         <v>330</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="2">
         <v>50</v>
       </c>
-      <c r="E191" s="3">
-        <v>0</v>
-      </c>
-      <c r="F191" s="3" t="s">
+      <c r="E191" s="2">
+        <v>0</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192" s="3">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3">
+      <c r="B192" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2">
+        <v>400</v>
+      </c>
+      <c r="D192" s="2">
         <v>55</v>
       </c>
-      <c r="E192" s="3">
-        <v>0</v>
-      </c>
-      <c r="F192" s="3" t="s">
+      <c r="E192" s="2">
+        <v>0</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="2">
         <v>350</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="2">
         <v>100</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>5</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="3">
-        <v>0</v>
-      </c>
-      <c r="D194" s="3">
-        <v>1</v>
-      </c>
-      <c r="E194" s="3">
-        <v>0</v>
-      </c>
-      <c r="F194" s="3" t="s">
+      <c r="B194" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E194" s="2">
+        <v>1</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G194">
         <v>100</v>
       </c>
     </row>

--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iasonov/Programming/Python/HSE_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5D8E31-05F0-A541-AA79-5FA13A8F1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1AA9D-0EB1-6044-9A16-85E9D78E0808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{459C6DFD-26EB-1040-9D7C-59DC53018D97}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="programs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">programs!$A$1:$F$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">programs!$A$1:$I$194</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,8 +37,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Igor Asonov</author>
+  </authors>
+  <commentList>
+    <comment ref="F148" authorId="0" shapeId="0" xr:uid="{E2B23FF3-614D-E84A-B68E-641A01250968}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>всего 25</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="247">
   <si>
     <t>master</t>
   </si>
@@ -622,99 +645,6 @@
     <t>bachelor</t>
   </si>
   <si>
-    <t>Аналитика больших данных / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Магистр аналитики бизнеса / Москва / 380408 Финансы и кредит / факультет экономических наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Экономический анализ / Москва / 380301 Экономика / факультет экономических наук / Бакалавриат</t>
-  </si>
-  <si>
-    <t>Финансы / Москва / 380408 Финансы и кредит / Банковский институт / Магистратура</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Управление инновационным бизнесом / Москва / 270405 Инноватика / Кафедра менеджмента инноваций / Магистратура</t>
-  </si>
-  <si>
-    <t>Проектирование и разработка высоконагруженных информационных систем / НИУ ВШЭ СанктПетербург / 010402 Прикладная математика и информатика / Факультет СанктПетербургская школа физикоматематических и компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Прикладная социальная психология / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Управление цифровым продуктом / Москва / 380405 Бизнесинформатика / Высшая школа бизнеса / Магистратура</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект в маркетинге и управлении продуктом / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>ИТ – юрист / НИУ ВШЭ Пермь / 400401 Юриспруденция / Магистерская школа / Магистратура</t>
-  </si>
-  <si>
-    <t>Инвестиции на финансовых рынках / Москва / 380408 Финансы и кредит / факультет экономических наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Управление организациями и проектами / НИУ ВШЭ Нижний Новгород / 380402 Менеджмент / Факультет менеджмента / Магистратура</t>
-  </si>
-  <si>
-    <t>Компьютерные науки и анализ данных / Москва / 010302 Прикладная математика и информатика / факультет компьютерных наук / Бакалавриат</t>
-  </si>
-  <si>
-    <t>Магистр по наукам о данных / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Маркетинг менеджмент / Москва / 380402 Менеджмент / Высшая школа бизнеса / Магистратура</t>
-  </si>
-  <si>
-    <t>Управление стратегическими коммуникациями / Москва / 420401 Реклама и связи с общественностью / факультет креативных индустрий / Магистратура</t>
-  </si>
-  <si>
-    <t>Цифровая урбанистика и аналитика города / Москва / 070404 Градостроительство / факультет городского и регионального развития / Магистратура</t>
-  </si>
-  <si>
-    <t>Дизайн / НИУ ВШЭ Пермь / 540301 Дизайн / Факультет социальноэкономических и компьютерных наук / Бакалавриат</t>
-  </si>
-  <si>
-    <t>Международный бизнес / Москва / 380402 Менеджмент / Кафедра менеджмента инноваций / Магистратура</t>
-  </si>
-  <si>
-    <t>Аналитика данных и прикладная статистика / Москва / 010402 Прикладная математика и информатика / факультет социальных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Экономический анализ / Москва / 380401 Экономика / факультет экономических наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Глобальные цифровые коммуникации / Москва / 420305 Медиакоммуникации / факультет креативных индустрий / Бакалавриат</t>
-  </si>
-  <si>
-    <t>Интерактивный дизайн / Москва / 540401 Дизайн / факультет креативных индустрий / Магистратура</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект и компьютерное зрение / НИУ ВШЭ Нижний Новгород / 010402 Прикладная математика и информатика / Факультет информатики математики и компьютерных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Психоанализ и психоаналитическое бизнесконсультирование / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Управление в креативных индустриях / Москва / 380402 Менеджмент / факультет креативных индустрий / Магистратура</t>
-  </si>
-  <si>
-    <t>Программные системы и автоматизация процессов разработки / НИУ ВШЭ Пермь / 090304 Программная инженерия / Факультет социальноэкономических и компьютерных наук / Бакалавриат</t>
-  </si>
-  <si>
-    <t>М 09.04.04 ФКН 2024 очная Инженерия данных</t>
-  </si>
-  <si>
-    <t>Психоанализ и психоаналитическая психотерапия / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
-  </si>
-  <si>
-    <t>Кибербезопасность / Москва / 100401 Информационная безопасность / Московский институт электроники и математики им АН Тихонова / Магистратура</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -749,13 +679,136 @@
   </si>
   <si>
     <t>program_bitrix</t>
+  </si>
+  <si>
+    <t>АБД. Аналитика больших данных / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>АДиПС. Аналитика данных и прикладная статистика / Москва / 010402 Прикладная математика и информатика / факультет социальных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>БИОИНФ. Биоинформатика в агробиотехнологиях / Москва / 010402 Прикладная математика и информатика / Общий / Магистратура</t>
+  </si>
+  <si>
+    <t>ГЦК. Глобальные цифровые коммуникации / Москва / 420305 Медиакоммуникации / факультет креативных индустрий / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ГЦК. Глобальные цифровые коммуникации / Москва / 420301 Реклама и связи с общественностью / факультет креативных индустрий / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ДИЗБАК. Дизайн / НИУ ВШЭ Пермь / 540301 Дизайн / Факультет социальноэкономических и компьютерных наук / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ИФР. Инвестиции на финансовых рынках / Москва / 380408 Финансы и кредит / факультет экономических наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ИНЖДАН. Инженерия данных / Москва / 090404 Программная инженерия / факультет компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ИНТДИЗ. Интерактивный дизайн / Москва / 540401 Дизайн / факультет креативных индустрий / Магистратура</t>
+  </si>
+  <si>
+    <t>ИСКИНТ. Искусственный интеллект / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ИИвМАРК. Искусственный интеллект в маркетинге и управлении продуктом / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ИИиКЗ. Искусственный интеллект и компьютерное зрение / НИУ ВШЭ Нижний Новгород / 010402 Прикладная математика и информатика / Факультет информатики математики и компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ИТЮРИСТ. ИТ – юрист / НИУ ВШЭ Пермь / 400401 Юриспруденция / Магистерская школа / Магистратура</t>
+  </si>
+  <si>
+    <t>КИБЕРБЕЗ. Кибербезопасность / Москва / 100401 Информационная безопасность / Московский институт электроники и математики им АН Тихонова / Магистратура</t>
+  </si>
+  <si>
+    <t>КИТЯЗ. Китайский язык в межкультурной бизнескоммуникации / Москва / 450402 Лингвистика / Школа иностранных языков / Магистратура</t>
+  </si>
+  <si>
+    <t>КНАД. Компьютерные науки и анализ данных / Москва / 010302 Прикладная математика и информатика / факультет компьютерных наук / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ЛИГТЕХ. ЛигалТех / Москва / 010402 Прикладная математика и информатика / факультет права / Магистратура</t>
+  </si>
+  <si>
+    <t>МАБ. Магистр аналитики бизнеса / Москва / 380408 Финансы и кредит / факультет экономических наук / Магистратура</t>
+  </si>
+  <si>
+    <t>МНАД. Магистр по наукам о данных / Москва / 010402 Прикладная математика и информатика / факультет компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ОНМАРКМЕН. Маркетинг менеджмент / Москва / 380402 Менеджмент / Высшая школа бизнеса / Магистратура</t>
+  </si>
+  <si>
+    <t>МЕЖДБИЗ. Международный бизнес / Москва / 380402 Менеджмент / Кафедра менеджмента инноваций / Магистратура</t>
+  </si>
+  <si>
+    <t>ПЕДДИЗ. Педагогический дизайн теория и практика обучения / Москва / 440401 Педагогическое образование / Институт образования / Магистратура</t>
+  </si>
+  <si>
+    <t>ПРИКЛИНГ. Прикладная лингвистика обучение иностранному языку и перевод в цифровой среде / НИУ ВШЭ СанктПетербург / 450403 Фундаментальная и прикладная лингвистика / Факультет СанктПетербургская школа гуманитарных наук и искусств / Магистратура</t>
+  </si>
+  <si>
+    <t>ПСП. Прикладная социальная психология / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ПРОГСИС. Программные системы и автоматизация процессов разработки / НИУ ВШЭ Пермь / 090304 Программная инженерия / Факультет социальноэкономических и компьютерных наук / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ПРВИС. Проектирование и разработка высоконагруженных информационных систем / НИУ ВШЭ СанктПетербург / 010402 Прикладная математика и информатика / Факультет СанктПетербургская школа физикоматематических и компьютерных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ПСИХТЕР. Психоанализ и психоаналитическая психотерапия / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>ППиБИЗКОНС. Психоанализ и психоаналитическое бизнесконсультирование / Москва / 370401 Психология / факультет социальных наук / Магистратура</t>
+  </si>
+  <si>
+    <t>УПРБИЗН. Управление бизнесом / НИУ ВШЭ Пермь / 380302 Менеджмент / Факультет социальноэкономических и компьютерных наук / Бакалавриат</t>
+  </si>
+  <si>
+    <t>УКИ. Управление в креативных индустриях / Москва / 380402 Менеджмент / факультет креативных индустрий / Магистратура</t>
+  </si>
+  <si>
+    <t>УИБ. Управление инновационным бизнесом / Москва / 270405 Инноватика / Кафедра менеджмента инноваций / Магистратура</t>
+  </si>
+  <si>
+    <t>УОиП. Управление организациями и проектами / НИУ ВШЭ Нижний Новгород / 380402 Менеджмент / Факультет менеджмента / Магистратура</t>
+  </si>
+  <si>
+    <t>УСК. Управление стратегическими коммуникациями / Москва / 420401 Реклама и связи с общественностью / факультет креативных индустрий / Магистратура</t>
+  </si>
+  <si>
+    <t>УЦП. Управление цифровым продуктом / Москва / 380405 Бизнесинформатика / Высшая школа бизнеса / Магистратура</t>
+  </si>
+  <si>
+    <t>ФИНОНЛ. Финансы / Москва / 380408 Финансы и кредит / Банковский институт / Магистратура</t>
+  </si>
+  <si>
+    <t>ЦИФРИНЖЕН. Цифровая инженерия для компьютерных игр / Москва / 010404 Прикладная математика / Московский институт электроники и математики им АН Тихонова / Магистратура</t>
+  </si>
+  <si>
+    <t>ЦУИАГ. Цифровая урбанистика и аналитика города / Москва / 070404 Градостроительство / факультет городского и регионального развития / Магистратура</t>
+  </si>
+  <si>
+    <t>ЦИФРМАРК. Цифровой маркетинг / НИУ ВШЭ Нижний Новгород / 380402 Менеджмент / Факультет менеджмента / Магистратура</t>
+  </si>
+  <si>
+    <t>ЭКАНБАК. Экономический анализ / Москва / 380301 Экономика / факультет экономических наук / Бакалавриат</t>
+  </si>
+  <si>
+    <t>ЭКАНМАГ. Экономический анализ / Москва / 380401 Экономика / факультет экономических наук / Магистратура</t>
+  </si>
+  <si>
+    <t>plan_state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,22 +823,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -793,14 +860,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,24 +1202,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="95.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="6" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="46" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -1139,25 +1227,28 @@
         <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>194</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>183</v>
       </c>
@@ -1167,12 +1258,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -1182,12 +1274,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -1197,12 +1290,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -1212,12 +1306,13 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -1227,12 +1322,13 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>178</v>
       </c>
@@ -1242,12 +1338,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -1258,22 +1355,25 @@
         <v>490</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>200</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -1283,12 +1383,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -1299,22 +1400,25 @@
         <v>440</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>110</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -1324,12 +1428,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
@@ -1339,12 +1444,13 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>172</v>
       </c>
@@ -1354,12 +1460,13 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>171</v>
       </c>
@@ -1369,12 +1476,13 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>170</v>
       </c>
@@ -1384,12 +1492,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -1399,12 +1508,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
@@ -1414,12 +1524,13 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
@@ -1429,12 +1540,13 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
@@ -1444,12 +1556,13 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -1459,12 +1572,13 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -1474,12 +1588,13 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -1489,12 +1604,13 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -1504,12 +1620,13 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -1519,12 +1636,13 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -1534,12 +1652,13 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -1549,12 +1668,13 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>158</v>
       </c>
@@ -1564,12 +1684,13 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>157</v>
       </c>
@@ -1579,12 +1700,13 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -1594,64 +1716,71 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>440</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>490</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="5">
+        <v>100</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>120</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G30">
+      <c r="H31">
         <v>100</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>470</v>
-      </c>
-      <c r="D31" s="1">
-        <v>150</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
@@ -1661,12 +1790,13 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>152</v>
       </c>
@@ -1676,12 +1806,13 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -1691,12 +1822,13 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>150</v>
       </c>
@@ -1706,38 +1838,42 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
       </c>
       <c r="C36">
-        <v>430</v>
-      </c>
-      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36">
         <v>100</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -1747,12 +1883,13 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -1762,12 +1899,13 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
@@ -1777,90 +1915,100 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
       </c>
       <c r="C40" s="1">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="D40" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
+        <v>400</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>440</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>120</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>470</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>490</v>
-      </c>
-      <c r="D41">
-        <v>160</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>430</v>
-      </c>
-      <c r="D42" s="1">
-        <v>60</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -1870,12 +2018,13 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
@@ -1885,12 +2034,13 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -1900,64 +2050,71 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>380</v>
-      </c>
-      <c r="D46">
-        <v>70</v>
+        <v>430</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>100</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="D47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -1967,12 +2124,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
@@ -1982,12 +2140,13 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
@@ -1997,12 +2156,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
@@ -2012,12 +2172,13 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -2027,12 +2188,13 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -2042,20 +2204,20 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -2065,12 +2227,13 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
@@ -2080,12 +2243,13 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
@@ -2095,12 +2259,13 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -2110,12 +2275,13 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -2125,12 +2291,13 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -2140,12 +2307,13 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
@@ -2155,12 +2323,13 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2170,35 +2339,42 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="1">
-        <v>440</v>
+      <c r="C62">
+        <v>490</v>
       </c>
       <c r="D62" s="1">
-        <v>60</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>160</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -2208,12 +2384,13 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -2223,64 +2400,71 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D65" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>100</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="1">
-        <v>490</v>
+      <c r="C66">
+        <v>380</v>
       </c>
       <c r="D66" s="1">
-        <v>200</v>
-      </c>
-      <c r="E66" s="1">
-        <v>20</v>
-      </c>
-      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>70</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>100</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -2290,38 +2474,42 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D68" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
-      </c>
-      <c r="F68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="1">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
@@ -2331,12 +2519,13 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
@@ -2346,12 +2535,13 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2361,12 +2551,13 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -2376,12 +2567,13 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>112</v>
       </c>
@@ -2391,12 +2583,13 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>111</v>
       </c>
@@ -2406,12 +2599,13 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
@@ -2421,12 +2615,13 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>109</v>
       </c>
@@ -2436,38 +2631,42 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>510</v>
-      </c>
-      <c r="D77">
-        <v>150</v>
-      </c>
-      <c r="E77">
-        <v>15</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>490</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>50</v>
+      </c>
+      <c r="F77" s="5">
+        <v>5</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="5">
         <v>100</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I77" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>107</v>
       </c>
@@ -2477,12 +2676,13 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
@@ -2492,12 +2692,13 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -2507,12 +2708,13 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
@@ -2522,12 +2724,13 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -2537,12 +2740,13 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -2552,12 +2756,13 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -2567,12 +2772,13 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -2582,12 +2788,13 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -2597,12 +2804,13 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -2612,12 +2820,13 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -2627,12 +2836,13 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -2642,12 +2852,13 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2657,12 +2868,13 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
@@ -2672,12 +2884,13 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2687,12 +2900,13 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2702,12 +2916,13 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -2717,12 +2932,13 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
@@ -2732,12 +2948,13 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>89</v>
       </c>
@@ -2747,12 +2964,13 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
@@ -2762,12 +2980,13 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2777,12 +2996,13 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>86</v>
       </c>
@@ -2792,12 +3012,13 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>85</v>
       </c>
@@ -2807,12 +3028,13 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>84</v>
       </c>
@@ -2822,12 +3044,13 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>83</v>
       </c>
@@ -2837,12 +3060,13 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>82</v>
       </c>
@@ -2852,38 +3076,42 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>440</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="1">
+        <v>550</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>150</v>
+      </c>
+      <c r="F104" s="1">
+        <v>10</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>100</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I104" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -2893,12 +3121,13 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -2908,12 +3137,13 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>78</v>
       </c>
@@ -2923,12 +3153,13 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
@@ -2938,38 +3169,42 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>400</v>
-      </c>
-      <c r="D109">
-        <v>20</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
+      <c r="C109" s="1">
+        <v>440</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>60</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G109">
-        <v>100</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>50</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>75</v>
       </c>
@@ -2979,64 +3214,71 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C111">
-        <v>700</v>
-      </c>
-      <c r="D111">
-        <v>130</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111">
+      <c r="C111" s="1">
+        <v>440</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>145</v>
+      </c>
+      <c r="F111" s="1">
+        <v>3</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111">
         <v>100</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C112">
-        <v>800</v>
-      </c>
-      <c r="D112">
-        <v>165</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G112">
+      <c r="C112" s="1">
+        <v>490</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>20</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112">
         <v>100</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I112" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
@@ -3046,12 +3288,13 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>70</v>
       </c>
@@ -3061,12 +3304,13 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>69</v>
       </c>
@@ -3076,12 +3320,13 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>68</v>
       </c>
@@ -3091,12 +3336,13 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
@@ -3106,12 +3352,13 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>66</v>
       </c>
@@ -3121,12 +3368,13 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>65</v>
       </c>
@@ -3136,12 +3384,13 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
@@ -3151,12 +3400,13 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>63</v>
       </c>
@@ -3166,12 +3416,13 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,12 +3432,13 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>61</v>
       </c>
@@ -3196,12 +3448,13 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>60</v>
       </c>
@@ -3211,12 +3464,13 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
@@ -3226,12 +3480,13 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>58</v>
       </c>
@@ -3241,12 +3496,13 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>57</v>
       </c>
@@ -3256,12 +3512,13 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -3271,12 +3528,13 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,12 +3544,13 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
@@ -3301,12 +3560,13 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>53</v>
       </c>
@@ -3316,12 +3576,13 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>52</v>
       </c>
@@ -3331,12 +3592,13 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
@@ -3346,12 +3608,13 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>50</v>
       </c>
@@ -3361,12 +3624,13 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>49</v>
       </c>
@@ -3376,12 +3640,13 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>48</v>
       </c>
@@ -3391,12 +3656,13 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>47</v>
       </c>
@@ -3406,12 +3672,13 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,12 +3688,13 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>45</v>
       </c>
@@ -3436,12 +3704,13 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>44</v>
       </c>
@@ -3451,12 +3720,13 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>43</v>
       </c>
@@ -3466,12 +3736,13 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>42</v>
       </c>
@@ -3481,12 +3752,13 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>41</v>
       </c>
@@ -3496,12 +3768,13 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -3511,38 +3784,42 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C145">
-        <v>430</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="1">
+        <v>500</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>200</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145">
         <v>100</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G145">
-        <v>100</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I145" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>38</v>
       </c>
@@ -3552,12 +3829,13 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -3567,38 +3845,42 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>410</v>
-      </c>
-      <c r="D148">
-        <v>160</v>
+        <v>510</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>10</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148">
+        <v>60</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148">
         <v>100</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I148" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>35</v>
       </c>
@@ -3608,12 +3890,13 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>34</v>
       </c>
@@ -3623,12 +3906,13 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>33</v>
       </c>
@@ -3638,38 +3922,42 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="1">
-        <v>400</v>
-      </c>
-      <c r="D152" s="1">
-        <v>250</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="5">
+        <v>390</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0</v>
+      </c>
+      <c r="E152" s="5">
+        <v>55</v>
+      </c>
+      <c r="F152" s="5">
         <v>3</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G152">
+      <c r="H152" s="5">
         <v>100</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I152" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3679,12 +3967,13 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -3694,12 +3983,13 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>29</v>
       </c>
@@ -3709,64 +3999,71 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1">
-        <v>390</v>
-      </c>
-      <c r="D156" s="1">
-        <v>250</v>
-      </c>
-      <c r="E156" s="1">
+      <c r="F155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="5">
+        <v>330</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156" s="5">
+        <v>50</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="5">
+        <v>100</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>440</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157">
         <v>2</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G156">
+      <c r="H157">
         <v>100</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" s="1">
-        <v>500</v>
-      </c>
-      <c r="D157" s="1">
-        <v>200</v>
-      </c>
-      <c r="E157" s="1">
-        <v>5</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G157">
-        <v>100</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I157" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>26</v>
       </c>
@@ -3776,12 +4073,13 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>25</v>
       </c>
@@ -3791,12 +4089,13 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -3806,12 +4105,13 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>23</v>
       </c>
@@ -3821,12 +4121,13 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>22</v>
       </c>
@@ -3836,12 +4137,13 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -3851,12 +4153,13 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -3866,12 +4169,13 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -3881,12 +4185,13 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -3896,38 +4201,42 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="1">
-        <v>440</v>
+        <v>191</v>
+      </c>
+      <c r="B167" t="s">
+        <v>193</v>
+      </c>
+      <c r="C167">
+        <v>350</v>
       </c>
       <c r="D167" s="1">
-        <v>150</v>
-      </c>
-      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>100</v>
+      </c>
+      <c r="F167">
         <v>3</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G167">
-        <v>100</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>50</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -3937,38 +4246,42 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="1">
-        <v>440</v>
-      </c>
-      <c r="D169">
-        <v>55</v>
+      <c r="C169">
+        <v>400</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>5</v>
-      </c>
-      <c r="F169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>100</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I169" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -3978,12 +4291,13 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -3993,12 +4307,13 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -4008,12 +4323,13 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -4023,12 +4339,13 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -4038,38 +4355,42 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C175">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="D175" s="1">
-        <v>165</v>
-      </c>
-      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>130</v>
+      </c>
+      <c r="F175">
         <v>10</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175">
+      <c r="G175" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175">
         <v>100</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I175" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>7</v>
       </c>
@@ -4079,12 +4400,13 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F176" s="1"/>
+      <c r="G176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
@@ -4094,12 +4416,13 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F177" s="1"/>
+      <c r="G177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -4109,12 +4432,13 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F178" s="1"/>
+      <c r="G178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -4124,12 +4448,13 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
@@ -4139,12 +4464,13 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F180" s="1"/>
+      <c r="G180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -4154,334 +4480,402 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B182" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>800</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>165</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H182">
+        <v>100</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C182">
+      <c r="C183" s="5">
+        <v>350</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0</v>
+      </c>
+      <c r="E183" s="5">
+        <v>100</v>
+      </c>
+      <c r="F183" s="5">
+        <v>5</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="5">
+        <v>100</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>430</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>100</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184">
+        <v>100</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>410</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>160</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185">
+        <v>100</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>400</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>250</v>
+      </c>
+      <c r="F186" s="1">
+        <v>3</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186">
+        <v>100</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>390</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>250</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187">
+        <v>100</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="6">
         <v>500</v>
       </c>
-      <c r="D182">
-        <v>120</v>
-      </c>
-      <c r="E182">
-        <v>4</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="D188" s="6">
+        <v>0</v>
+      </c>
+      <c r="E188" s="6">
+        <v>200</v>
+      </c>
+      <c r="F188" s="6">
+        <v>5</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G182">
+      <c r="H188" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="I188" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="6">
+        <v>440</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0</v>
+      </c>
+      <c r="E189" s="6">
+        <v>150</v>
+      </c>
+      <c r="F189" s="6">
+        <v>3</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="5">
+        <v>100</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="5">
+        <v>400</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0</v>
+      </c>
+      <c r="E190" s="5">
+        <v>55</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="5">
+        <v>100</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="6">
+        <v>440</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>55</v>
+      </c>
+      <c r="F191" s="5">
+        <v>5</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="5">
+        <v>100</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="5">
+        <v>370</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0</v>
+      </c>
+      <c r="E192" s="5">
+        <v>150</v>
+      </c>
+      <c r="F192" s="5">
+        <v>0</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="5">
+        <v>100</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="5">
+        <v>390</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193" s="6">
+        <v>165</v>
+      </c>
+      <c r="F193" s="6">
+        <v>10</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="5">
+        <v>100</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C183">
-        <v>500</v>
-      </c>
-      <c r="D183">
-        <v>35</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="F183" s="1" t="s">
+      <c r="C194" s="6">
+        <v>510</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0</v>
+      </c>
+      <c r="E194" s="6">
+        <v>70</v>
+      </c>
+      <c r="F194" s="6">
+        <v>3</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G183">
+      <c r="H194" s="5">
         <v>100</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B184" t="s">
-        <v>193</v>
-      </c>
-      <c r="C184" s="1">
-        <v>390</v>
-      </c>
-      <c r="D184" s="1">
-        <v>400</v>
-      </c>
-      <c r="E184" s="1">
-        <v>7</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184">
-        <v>100</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185" s="1">
-        <v>550</v>
-      </c>
-      <c r="D185" s="1">
-        <v>150</v>
-      </c>
-      <c r="E185" s="1">
-        <v>10</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185">
-        <v>100</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B186" t="s">
-        <v>193</v>
-      </c>
-      <c r="C186">
-        <v>350</v>
-      </c>
-      <c r="D186">
-        <v>100</v>
-      </c>
-      <c r="E186">
-        <v>3</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186">
-        <v>50</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B187" t="s">
-        <v>193</v>
-      </c>
-      <c r="C187" s="1">
-        <v>510</v>
-      </c>
-      <c r="D187" s="1">
-        <v>70</v>
-      </c>
-      <c r="E187" s="1">
-        <v>3</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G187">
-        <v>100</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="2">
-        <v>390</v>
-      </c>
-      <c r="D188" s="2">
-        <v>50</v>
-      </c>
-      <c r="E188" s="2">
-        <v>0</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2">
-        <v>370</v>
-      </c>
-      <c r="D189" s="2">
-        <v>150</v>
-      </c>
-      <c r="E189" s="2">
-        <v>0</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G189">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="2">
-        <v>490</v>
-      </c>
-      <c r="D190" s="2">
-        <v>50</v>
-      </c>
-      <c r="E190" s="2">
-        <v>5</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="2">
-        <v>330</v>
-      </c>
-      <c r="D191" s="2">
-        <v>50</v>
-      </c>
-      <c r="E191" s="2">
-        <v>0</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192" s="2">
-        <v>400</v>
-      </c>
-      <c r="D192" s="2">
-        <v>55</v>
-      </c>
-      <c r="E192" s="2">
-        <v>0</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G192">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193" s="2">
-        <v>350</v>
-      </c>
-      <c r="D193" s="2">
-        <v>100</v>
-      </c>
-      <c r="E193" s="2">
-        <v>5</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G193">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
-        <v>1</v>
-      </c>
-      <c r="E194" s="2">
-        <v>1</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G194">
-        <v>100</v>
+      <c r="I194" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F194" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:I194" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
+    <filterColumn colId="6">
       <filters>
         <filter val="online"/>
         <filter val="online_part"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I194">
+      <sortCondition ref="A1:A194"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/programs.xlsx
+++ b/data/programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iasonov/Programming/Python/HSE_dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tijuanap\Programs\HSE_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1AA9D-0EB1-6044-9A16-85E9D78E0808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8CE698-6ABD-4ABE-B691-348A4C51B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{459C6DFD-26EB-1040-9D7C-59DC53018D97}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{459C6DFD-26EB-1040-9D7C-59DC53018D97}"/>
   </bookViews>
   <sheets>
     <sheet name="programs" sheetId="1" r:id="rId1"/>
@@ -37,29 +37,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Igor Asonov</author>
-  </authors>
-  <commentList>
-    <comment ref="F148" authorId="0" shapeId="0" xr:uid="{E2B23FF3-614D-E84A-B68E-641A01250968}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>всего 25</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="247">
   <si>
@@ -808,7 +785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -836,12 +813,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -907,9 +878,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -947,7 +918,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1053,7 +1024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,31 +1166,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926906A6-24B3-5740-B910-B88CF720A5E6}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="6" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="6" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="46" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -1248,7 +1219,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>183</v>
       </c>
@@ -1264,7 +1235,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -1280,7 +1251,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -1296,7 +1267,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -1312,7 +1283,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -1328,7 +1299,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>178</v>
       </c>
@@ -1344,7 +1315,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -1373,7 +1344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -1389,7 +1360,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
@@ -1418,7 +1389,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -1434,7 +1405,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
@@ -1450,7 +1421,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>172</v>
       </c>
@@ -1466,7 +1437,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>171</v>
       </c>
@@ -1482,7 +1453,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>170</v>
       </c>
@@ -1498,7 +1469,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -1514,7 +1485,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
@@ -1530,7 +1501,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
@@ -1546,7 +1517,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
@@ -1562,7 +1533,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -1578,7 +1549,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -1594,7 +1565,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -1610,7 +1581,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -1626,7 +1597,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -1642,7 +1613,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -1658,7 +1629,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -1674,7 +1645,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>158</v>
       </c>
@@ -1690,7 +1661,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>157</v>
       </c>
@@ -1706,7 +1677,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -1722,7 +1693,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>199</v>
       </c>
@@ -1736,10 +1707,10 @@
         <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>72</v>
@@ -1751,7 +1722,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
@@ -1780,7 +1751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
@@ -1796,7 +1767,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>152</v>
       </c>
@@ -1812,7 +1783,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>151</v>
       </c>
@@ -1828,7 +1799,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>150</v>
       </c>
@@ -1844,7 +1815,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>188</v>
       </c>
@@ -1873,7 +1844,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -1889,7 +1860,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -1905,7 +1876,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
@@ -1921,7 +1892,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>189</v>
       </c>
@@ -1950,7 +1921,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -1979,7 +1950,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -2008,7 +1979,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2024,7 +1995,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
@@ -2040,7 +2011,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -2056,7 +2027,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -2085,7 +2056,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -2114,7 +2085,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -2130,7 +2101,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
@@ -2146,7 +2117,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
@@ -2162,7 +2133,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
@@ -2178,7 +2149,7 @@
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -2194,7 +2165,7 @@
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -2217,7 +2188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -2233,7 +2204,7 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
@@ -2249,7 +2220,7 @@
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>129</v>
       </c>
@@ -2265,7 +2236,7 @@
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -2281,7 +2252,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -2297,7 +2268,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -2313,7 +2284,7 @@
       </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
@@ -2329,7 +2300,7 @@
       </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2345,7 +2316,7 @@
       </c>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
@@ -2374,7 +2345,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -2390,7 +2361,7 @@
       </c>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -2406,7 +2377,7 @@
       </c>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -2435,7 +2406,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>139</v>
       </c>
@@ -2464,7 +2435,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -2480,7 +2451,7 @@
       </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
@@ -2509,7 +2480,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
@@ -2525,7 +2496,7 @@
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
@@ -2541,7 +2512,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2557,7 +2528,7 @@
       </c>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -2573,7 +2544,7 @@
       </c>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>112</v>
       </c>
@@ -2589,7 +2560,7 @@
       </c>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>111</v>
       </c>
@@ -2605,7 +2576,7 @@
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
@@ -2621,7 +2592,7 @@
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>109</v>
       </c>
@@ -2637,7 +2608,7 @@
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>196</v>
       </c>
@@ -2666,7 +2637,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>107</v>
       </c>
@@ -2682,7 +2653,7 @@
       </c>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
@@ -2698,7 +2669,7 @@
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>105</v>
       </c>
@@ -2714,7 +2685,7 @@
       </c>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
@@ -2730,7 +2701,7 @@
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -2746,7 +2717,7 @@
       </c>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -2762,7 +2733,7 @@
       </c>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -2778,7 +2749,7 @@
       </c>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -2794,7 +2765,7 @@
       </c>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -2810,7 +2781,7 @@
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -2826,7 +2797,7 @@
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -2842,7 +2813,7 @@
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -2858,7 +2829,7 @@
       </c>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2874,7 +2845,7 @@
       </c>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
@@ -2890,7 +2861,7 @@
       </c>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2906,7 +2877,7 @@
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2922,7 +2893,7 @@
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -2938,7 +2909,7 @@
       </c>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
@@ -2954,7 +2925,7 @@
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>89</v>
       </c>
@@ -2970,7 +2941,7 @@
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
@@ -2986,7 +2957,7 @@
       </c>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3002,7 +2973,7 @@
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>86</v>
       </c>
@@ -3018,7 +2989,7 @@
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,7 +3005,7 @@
       </c>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>84</v>
       </c>
@@ -3050,7 +3021,7 @@
       </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>83</v>
       </c>
@@ -3066,7 +3037,7 @@
       </c>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>82</v>
       </c>
@@ -3082,7 +3053,7 @@
       </c>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>190</v>
       </c>
@@ -3111,7 +3082,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>80</v>
       </c>
@@ -3127,7 +3098,7 @@
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
@@ -3143,7 +3114,7 @@
       </c>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>78</v>
       </c>
@@ -3159,7 +3130,7 @@
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
@@ -3175,7 +3146,7 @@
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -3204,7 +3175,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>75</v>
       </c>
@@ -3220,7 +3191,7 @@
       </c>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -3249,7 +3220,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -3278,7 +3249,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
@@ -3294,7 +3265,7 @@
       </c>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>70</v>
       </c>
@@ -3310,7 +3281,7 @@
       </c>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,7 +3297,7 @@
       </c>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>68</v>
       </c>
@@ -3342,7 +3313,7 @@
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
@@ -3358,7 +3329,7 @@
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>66</v>
       </c>
@@ -3374,7 +3345,7 @@
       </c>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>65</v>
       </c>
@@ -3390,7 +3361,7 @@
       </c>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
@@ -3406,7 +3377,7 @@
       </c>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,7 +3393,7 @@
       </c>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>62</v>
       </c>
@@ -3438,7 +3409,7 @@
       </c>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>61</v>
       </c>
@@ -3454,7 +3425,7 @@
       </c>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>60</v>
       </c>
@@ -3470,7 +3441,7 @@
       </c>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
@@ -3486,7 +3457,7 @@
       </c>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>58</v>
       </c>
@@ -3502,7 +3473,7 @@
       </c>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>57</v>
       </c>
@@ -3518,7 +3489,7 @@
       </c>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,7 +3505,7 @@
       </c>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -3550,7 +3521,7 @@
       </c>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,7 +3537,7 @@
       </c>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>53</v>
       </c>
@@ -3582,7 +3553,7 @@
       </c>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>52</v>
       </c>
@@ -3598,7 +3569,7 @@
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,7 +3585,7 @@
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>50</v>
       </c>
@@ -3630,7 +3601,7 @@
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>49</v>
       </c>
@@ -3646,7 +3617,7 @@
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,7 +3633,7 @@
       </c>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>47</v>
       </c>
@@ -3678,7 +3649,7 @@
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>46</v>
       </c>
@@ -3694,7 +3665,7 @@
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>45</v>
       </c>
@@ -3710,7 +3681,7 @@
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>44</v>
       </c>
@@ -3726,7 +3697,7 @@
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>43</v>
       </c>
@@ -3742,7 +3713,7 @@
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3729,7 @@
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>41</v>
       </c>
@@ -3774,7 +3745,7 @@
       </c>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -3790,7 +3761,7 @@
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>117</v>
       </c>
@@ -3819,7 +3790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +3806,7 @@
       </c>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -3851,7 +3822,7 @@
       </c>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>108</v>
       </c>
@@ -3868,7 +3839,7 @@
         <v>60</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>72</v>
@@ -3880,7 +3851,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>35</v>
       </c>
@@ -3896,7 +3867,7 @@
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>34</v>
       </c>
@@ -3912,7 +3883,7 @@
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3899,7 @@
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>195</v>
       </c>
@@ -3957,7 +3928,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3973,7 +3944,7 @@
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -3989,7 +3960,7 @@
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>29</v>
       </c>
@@ -4005,7 +3976,7 @@
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>201</v>
       </c>
@@ -4034,7 +4005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>81</v>
       </c>
@@ -4063,7 +4034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>26</v>
       </c>
@@ -4079,7 +4050,7 @@
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>25</v>
       </c>
@@ -4095,7 +4066,7 @@
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -4111,7 +4082,7 @@
       </c>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>23</v>
       </c>
@@ -4127,7 +4098,7 @@
       </c>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>22</v>
       </c>
@@ -4143,7 +4114,7 @@
       </c>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -4159,7 +4130,7 @@
       </c>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -4175,7 +4146,7 @@
       </c>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -4191,7 +4162,7 @@
       </c>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -4207,7 +4178,7 @@
       </c>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>191</v>
       </c>
@@ -4236,7 +4207,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -4252,7 +4223,7 @@
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>76</v>
       </c>
@@ -4281,7 +4252,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -4297,7 +4268,7 @@
       </c>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -4313,7 +4284,7 @@
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4300,7 @@
       </c>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -4345,7 +4316,7 @@
       </c>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -4361,7 +4332,7 @@
       </c>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>74</v>
       </c>
@@ -4390,7 +4361,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4377,7 @@
       </c>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
@@ -4422,7 +4393,7 @@
       </c>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4409,7 @@
       </c>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4425,7 @@
       </c>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>3</v>
       </c>
@@ -4470,7 +4441,7 @@
       </c>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +4457,7 @@
       </c>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>73</v>
       </c>
@@ -4515,7 +4486,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>198</v>
       </c>
@@ -4544,7 +4515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>39</v>
       </c>
@@ -4573,7 +4544,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>36</v>
       </c>
@@ -4602,7 +4573,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>32</v>
       </c>
@@ -4631,7 +4602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>28</v>
       </c>
@@ -4660,7 +4631,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>27</v>
       </c>
@@ -4689,7 +4660,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>17</v>
       </c>
@@ -4718,7 +4689,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>197</v>
       </c>
@@ -4747,7 +4718,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>15</v>
       </c>
@@ -4776,7 +4747,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>200</v>
       </c>
@@ -4805,7 +4776,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4805,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
@@ -4876,6 +4847,5 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>